--- a/Original Excel Files/QC.xlsx
+++ b/Original Excel Files/QC.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF6FAB-B409-4F8A-BEF1-DB27110C39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="31605" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,6 +434,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,168 +777,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1963</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="15"/>
+    </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="1"/>
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="A14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1977</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1966</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1978</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="16"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1987</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1963</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1987</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="2"/>
+      <c r="A18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1959</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1986</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -917,401 +1037,337 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1977</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1966</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="8"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1978</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="2"/>
+      <c r="A28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="I29" s="2"/>
+      <c r="A29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4">
-        <v>1987</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2001</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7">
-        <v>1987</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1959</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2005</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="A33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1989</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="16"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1986</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="8"/>
+      <c r="A34" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-    </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H36" s="8"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H37" s="8"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="A41" s="9"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2001</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2005</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1989</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="8"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" t="s">
-        <v>70</v>
-      </c>
+      <c r="H46" s="8"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s">
-        <v>74</v>
-      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="6"/>
     </row>
@@ -1320,12 +1376,15 @@
       <c r="J48" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:J48">
+    <sortCondition ref="A1:A48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1337,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
